--- a/background_matching_dataset.xlsx
+++ b/background_matching_dataset.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ufabcedubr-my.sharepoint.com/personal/duarte_rafael_ufabc_edu_br/Documents/Pesquisa/BEPE FAPESP/data_experiments/prawn colour matching/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo Calado\Documents\Rafael\Paper JAE\background matching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="266" documentId="8_{84845633-EF58-4E05-A792-C975A2AA4BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4EBF3A4-BAC5-4AE4-B49E-C12B95E51311}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFB485A-322A-49F4-A307-246EA829C798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE5F2C0A-9BA2-4424-B1BB-E6A4420AFF92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AE5F2C0A-9BA2-4424-B1BB-E6A4420AFF92}"/>
   </bookViews>
   <sheets>
     <sheet name="goby_vision" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">goby_vision!$A$1:$Q$295</definedName>
@@ -1042,7 +1041,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1341,30 +1340,30 @@
   <dimension ref="A1:Q295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A215" sqref="A215:XFD215"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" customWidth="1"/>
-    <col min="3" max="3" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>95</v>
       </c>
@@ -1417,7 +1416,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1470,7 +1469,7 @@
         <v>20.831800000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1523,7 +1522,7 @@
         <v>19.232399999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1576,7 +1575,7 @@
         <v>52.800199999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1629,7 +1628,7 @@
         <v>41.506799999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1682,7 +1681,7 @@
         <v>28.716000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1735,7 +1734,7 @@
         <v>17.540800000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1788,7 +1787,7 @@
         <v>17.7896</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1841,7 +1840,7 @@
         <v>7.7865000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1894,7 +1893,7 @@
         <v>16.797699999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1947,7 +1946,7 @@
         <v>8.6096000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>108</v>
       </c>
@@ -2000,7 +1999,7 @@
         <v>82.001300000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -2053,7 +2052,7 @@
         <v>76.081500000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -2106,7 +2105,7 @@
         <v>70.040899999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>111</v>
       </c>
@@ -2159,7 +2158,7 @@
         <v>74.433300000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -2212,7 +2211,7 @@
         <v>56.742400000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>113</v>
       </c>
@@ -2265,7 +2264,7 @@
         <v>71.850399999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>114</v>
       </c>
@@ -2318,7 +2317,7 @@
         <v>49.541800000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>115</v>
       </c>
@@ -2371,7 +2370,7 @@
         <v>53.072299999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -2424,7 +2423,7 @@
         <v>14.5662</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -2477,7 +2476,7 @@
         <v>12.453799999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2530,7 +2529,7 @@
         <v>26.784300000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>118</v>
       </c>
@@ -2583,7 +2582,7 @@
         <v>17.426600000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>119</v>
       </c>
@@ -2636,7 +2635,7 @@
         <v>11.597</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>120</v>
       </c>
@@ -2689,7 +2688,7 @@
         <v>19.624300000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>121</v>
       </c>
@@ -2742,7 +2741,7 @@
         <v>18.062100000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>122</v>
       </c>
@@ -2795,7 +2794,7 @@
         <v>12.2727</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -2848,7 +2847,7 @@
         <v>43.786099999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>124</v>
       </c>
@@ -2901,7 +2900,7 @@
         <v>13.808299999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>125</v>
       </c>
@@ -2954,7 +2953,7 @@
         <v>11.1487</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>126</v>
       </c>
@@ -3007,7 +3006,7 @@
         <v>7.2022000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>127</v>
       </c>
@@ -3060,7 +3059,7 @@
         <v>12.5245</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -3113,7 +3112,7 @@
         <v>21.197900000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>128</v>
       </c>
@@ -3166,7 +3165,7 @@
         <v>57.997700000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>129</v>
       </c>
@@ -3219,7 +3218,7 @@
         <v>48.533099999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>130</v>
       </c>
@@ -3272,7 +3271,7 @@
         <v>18.724</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>131</v>
       </c>
@@ -3325,7 +3324,7 @@
         <v>78.293899999999994</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>132</v>
       </c>
@@ -3378,7 +3377,7 @@
         <v>16.389900000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -3431,7 +3430,7 @@
         <v>17.873000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>134</v>
       </c>
@@ -3484,7 +3483,7 @@
         <v>58.466200000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>135</v>
       </c>
@@ -3537,7 +3536,7 @@
         <v>4.1818</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>136</v>
       </c>
@@ -3590,7 +3589,7 @@
         <v>15.3232</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>137</v>
       </c>
@@ -3643,7 +3642,7 @@
         <v>16.131699999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>138</v>
       </c>
@@ -3696,7 +3695,7 @@
         <v>49.3384</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>139</v>
       </c>
@@ -3749,7 +3748,7 @@
         <v>12.7361</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>140</v>
       </c>
@@ -3802,7 +3801,7 @@
         <v>45.433799999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>141</v>
       </c>
@@ -3855,7 +3854,7 @@
         <v>13.0419</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>142</v>
       </c>
@@ -3908,7 +3907,7 @@
         <v>10.3592</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>143</v>
       </c>
@@ -3961,7 +3960,7 @@
         <v>43.788200000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>144</v>
       </c>
@@ -4014,7 +4013,7 @@
         <v>44.8324</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>145</v>
       </c>
@@ -4067,7 +4066,7 @@
         <v>16.024699999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>146</v>
       </c>
@@ -4120,7 +4119,7 @@
         <v>19.225300000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>147</v>
       </c>
@@ -4173,7 +4172,7 @@
         <v>11.138299999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>148</v>
       </c>
@@ -4226,7 +4225,7 @@
         <v>15.8424</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>149</v>
       </c>
@@ -4279,7 +4278,7 @@
         <v>12.837400000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>150</v>
       </c>
@@ -4332,7 +4331,7 @@
         <v>79.684200000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>151</v>
       </c>
@@ -4385,7 +4384,7 @@
         <v>76.269099999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>152</v>
       </c>
@@ -4438,7 +4437,7 @@
         <v>64.198700000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>153</v>
       </c>
@@ -4491,7 +4490,7 @@
         <v>10.8996</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>154</v>
       </c>
@@ -4544,7 +4543,7 @@
         <v>38.445300000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>155</v>
       </c>
@@ -4597,7 +4596,7 @@
         <v>17.586099999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>156</v>
       </c>
@@ -4650,7 +4649,7 @@
         <v>30.180099999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>157</v>
       </c>
@@ -4703,7 +4702,7 @@
         <v>9.3087</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>158</v>
       </c>
@@ -4756,7 +4755,7 @@
         <v>46.525500000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>159</v>
       </c>
@@ -4809,7 +4808,7 @@
         <v>13.1218</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>160</v>
       </c>
@@ -4862,7 +4861,7 @@
         <v>6.3543000000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>161</v>
       </c>
@@ -4915,7 +4914,7 @@
         <v>15.5464</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>162</v>
       </c>
@@ -4968,7 +4967,7 @@
         <v>10.254099999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>163</v>
       </c>
@@ -5021,7 +5020,7 @@
         <v>48.431399999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>164</v>
       </c>
@@ -5074,7 +5073,7 @@
         <v>55.751399999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>165</v>
       </c>
@@ -5127,7 +5126,7 @@
         <v>11.570499999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>166</v>
       </c>
@@ -5180,7 +5179,7 @@
         <v>13.807600000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>167</v>
       </c>
@@ -5233,7 +5232,7 @@
         <v>41.825800000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>168</v>
       </c>
@@ -5286,7 +5285,7 @@
         <v>15.8758</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>169</v>
       </c>
@@ -5339,7 +5338,7 @@
         <v>64.331999999999994</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>170</v>
       </c>
@@ -5392,7 +5391,7 @@
         <v>41.912799999999997</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>171</v>
       </c>
@@ -5445,7 +5444,7 @@
         <v>18.399799999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>172</v>
       </c>
@@ -5498,7 +5497,7 @@
         <v>14.230399999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>173</v>
       </c>
@@ -5551,7 +5550,7 @@
         <v>7.9539</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>174</v>
       </c>
@@ -5604,7 +5603,7 @@
         <v>23.641999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>175</v>
       </c>
@@ -5657,7 +5656,7 @@
         <v>41.0396</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>176</v>
       </c>
@@ -5710,7 +5709,7 @@
         <v>12.341799999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>177</v>
       </c>
@@ -5763,7 +5762,7 @@
         <v>13.764799999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>178</v>
       </c>
@@ -5816,7 +5815,7 @@
         <v>13.4184</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>179</v>
       </c>
@@ -5869,7 +5868,7 @@
         <v>11.6319</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>180</v>
       </c>
@@ -5922,7 +5921,7 @@
         <v>17.976600000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>181</v>
       </c>
@@ -5975,7 +5974,7 @@
         <v>12.2422</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>182</v>
       </c>
@@ -6028,7 +6027,7 @@
         <v>17.9955</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>183</v>
       </c>
@@ -6081,7 +6080,7 @@
         <v>10.582599999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>184</v>
       </c>
@@ -6134,7 +6133,7 @@
         <v>16.3551</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>185</v>
       </c>
@@ -6187,7 +6186,7 @@
         <v>13.298299999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>186</v>
       </c>
@@ -6240,7 +6239,7 @@
         <v>11.1151</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>187</v>
       </c>
@@ -6293,7 +6292,7 @@
         <v>19.302600000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>188</v>
       </c>
@@ -6346,7 +6345,7 @@
         <v>60.070799999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>189</v>
       </c>
@@ -6399,7 +6398,7 @@
         <v>46.636899999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>190</v>
       </c>
@@ -6452,7 +6451,7 @@
         <v>24.652699999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -6505,7 +6504,7 @@
         <v>17.181899999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>192</v>
       </c>
@@ -6558,7 +6557,7 @@
         <v>13.1434</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>193</v>
       </c>
@@ -6611,7 +6610,7 @@
         <v>30.619299999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>194</v>
       </c>
@@ -6664,7 +6663,7 @@
         <v>12.976599999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>195</v>
       </c>
@@ -6717,7 +6716,7 @@
         <v>43.9465</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>196</v>
       </c>
@@ -6770,7 +6769,7 @@
         <v>44.341099999999997</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>197</v>
       </c>
@@ -6823,7 +6822,7 @@
         <v>18.5595</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>12</v>
       </c>
@@ -6876,7 +6875,7 @@
         <v>16.296800000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>198</v>
       </c>
@@ -6929,7 +6928,7 @@
         <v>7.5011000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>13</v>
       </c>
@@ -6982,7 +6981,7 @@
         <v>51.363199999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>14</v>
       </c>
@@ -7035,7 +7034,7 @@
         <v>14.9574</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -7088,7 +7087,7 @@
         <v>23.622800000000002</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>16</v>
       </c>
@@ -7141,7 +7140,7 @@
         <v>58.552</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -7194,7 +7193,7 @@
         <v>13.1012</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>18</v>
       </c>
@@ -7247,7 +7246,7 @@
         <v>18.415400000000002</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>19</v>
       </c>
@@ -7300,7 +7299,7 @@
         <v>7.3465999999999996</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>20</v>
       </c>
@@ -7353,7 +7352,7 @@
         <v>15.381</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>21</v>
       </c>
@@ -7406,7 +7405,7 @@
         <v>13.458600000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>22</v>
       </c>
@@ -7459,7 +7458,7 @@
         <v>48.8932</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>23</v>
       </c>
@@ -7512,7 +7511,7 @@
         <v>25.164200000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>24</v>
       </c>
@@ -7565,7 +7564,7 @@
         <v>62.491900000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>25</v>
       </c>
@@ -7618,7 +7617,7 @@
         <v>26.931999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>26</v>
       </c>
@@ -7671,7 +7670,7 @@
         <v>69.4422</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>27</v>
       </c>
@@ -7724,7 +7723,7 @@
         <v>23.0532</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>28</v>
       </c>
@@ -7777,7 +7776,7 @@
         <v>35.356099999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>29</v>
       </c>
@@ -7830,7 +7829,7 @@
         <v>10.557499999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>30</v>
       </c>
@@ -7883,7 +7882,7 @@
         <v>10.5547</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>31</v>
       </c>
@@ -7936,7 +7935,7 @@
         <v>17.290700000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>32</v>
       </c>
@@ -7989,7 +7988,7 @@
         <v>19.5215</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>33</v>
       </c>
@@ -8042,7 +8041,7 @@
         <v>21.4419</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>34</v>
       </c>
@@ -8095,7 +8094,7 @@
         <v>12.426399999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>35</v>
       </c>
@@ -8148,7 +8147,7 @@
         <v>13.795500000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>36</v>
       </c>
@@ -8201,7 +8200,7 @@
         <v>19.4678</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>37</v>
       </c>
@@ -8254,7 +8253,7 @@
         <v>24.691700000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>38</v>
       </c>
@@ -8307,7 +8306,7 @@
         <v>27.956499999999998</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>39</v>
       </c>
@@ -8360,7 +8359,7 @@
         <v>13.236599999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>40</v>
       </c>
@@ -8413,7 +8412,7 @@
         <v>23.020199999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>41</v>
       </c>
@@ -8466,7 +8465,7 @@
         <v>10.5334</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>42</v>
       </c>
@@ -8519,7 +8518,7 @@
         <v>13.878500000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>43</v>
       </c>
@@ -8572,7 +8571,7 @@
         <v>17.4253</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>44</v>
       </c>
@@ -8625,7 +8624,7 @@
         <v>17.954799999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>45</v>
       </c>
@@ -8678,7 +8677,7 @@
         <v>71.400099999999995</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>46</v>
       </c>
@@ -8731,7 +8730,7 @@
         <v>90.394599999999997</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>47</v>
       </c>
@@ -8784,7 +8783,7 @@
         <v>71.250500000000002</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>48</v>
       </c>
@@ -8837,7 +8836,7 @@
         <v>70.19</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>49</v>
       </c>
@@ -8890,7 +8889,7 @@
         <v>66.406599999999997</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>50</v>
       </c>
@@ -8943,7 +8942,7 @@
         <v>86.108800000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>51</v>
       </c>
@@ -8996,7 +8995,7 @@
         <v>79.687700000000007</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>52</v>
       </c>
@@ -9049,7 +9048,7 @@
         <v>17.184000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>53</v>
       </c>
@@ -9102,7 +9101,7 @@
         <v>13.901899999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>54</v>
       </c>
@@ -9155,7 +9154,7 @@
         <v>10.687099999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>55</v>
       </c>
@@ -9208,7 +9207,7 @@
         <v>7.2850999999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>56</v>
       </c>
@@ -9261,7 +9260,7 @@
         <v>14.334300000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>57</v>
       </c>
@@ -9314,7 +9313,7 @@
         <v>17.9756</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>58</v>
       </c>
@@ -9367,7 +9366,7 @@
         <v>11.7789</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>59</v>
       </c>
@@ -9420,7 +9419,7 @@
         <v>11.907299999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>60</v>
       </c>
@@ -9473,7 +9472,7 @@
         <v>26.296800000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>61</v>
       </c>
@@ -9526,7 +9525,7 @@
         <v>13.507199999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>62</v>
       </c>
@@ -9579,7 +9578,7 @@
         <v>14.84</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>63</v>
       </c>
@@ -9632,7 +9631,7 @@
         <v>4.3085000000000004</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>64</v>
       </c>
@@ -9685,7 +9684,7 @@
         <v>12.0046</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>65</v>
       </c>
@@ -9738,7 +9737,7 @@
         <v>59.213999999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>66</v>
       </c>
@@ -9791,7 +9790,7 @@
         <v>50.883499999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>67</v>
       </c>
@@ -9844,7 +9843,7 @@
         <v>54.343400000000003</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>68</v>
       </c>
@@ -9897,7 +9896,7 @@
         <v>57.938200000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>69</v>
       </c>
@@ -9950,7 +9949,7 @@
         <v>53.347999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>70</v>
       </c>
@@ -10003,7 +10002,7 @@
         <v>62.885399999999997</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>71</v>
       </c>
@@ -10056,7 +10055,7 @@
         <v>54.831299999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>72</v>
       </c>
@@ -10109,7 +10108,7 @@
         <v>45.722299999999997</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>73</v>
       </c>
@@ -10162,7 +10161,7 @@
         <v>15.5762</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>74</v>
       </c>
@@ -10215,7 +10214,7 @@
         <v>11.598000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>75</v>
       </c>
@@ -10268,7 +10267,7 @@
         <v>15.4778</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>76</v>
       </c>
@@ -10321,7 +10320,7 @@
         <v>11.168900000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>77</v>
       </c>
@@ -10374,7 +10373,7 @@
         <v>15.9956</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>78</v>
       </c>
@@ -10427,7 +10426,7 @@
         <v>14.073499999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>79</v>
       </c>
@@ -10480,7 +10479,7 @@
         <v>19.109300000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>80</v>
       </c>
@@ -10533,7 +10532,7 @@
         <v>24.802900000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>81</v>
       </c>
@@ -10586,7 +10585,7 @@
         <v>18.8902</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>82</v>
       </c>
@@ -10639,7 +10638,7 @@
         <v>13.7713</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>83</v>
       </c>
@@ -10692,7 +10691,7 @@
         <v>10.4834</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>84</v>
       </c>
@@ -10745,7 +10744,7 @@
         <v>8.8483000000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>85</v>
       </c>
@@ -10798,7 +10797,7 @@
         <v>9.9465000000000003</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>86</v>
       </c>
@@ -10851,7 +10850,7 @@
         <v>16.182700000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>87</v>
       </c>
@@ -10904,7 +10903,7 @@
         <v>9.8309999999999995</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>88</v>
       </c>
@@ -10957,7 +10956,7 @@
         <v>11.973800000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>89</v>
       </c>
@@ -11010,7 +11009,7 @@
         <v>10.774100000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>90</v>
       </c>
@@ -11063,7 +11062,7 @@
         <v>15.1433</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>91</v>
       </c>
@@ -11116,7 +11115,7 @@
         <v>14.908799999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>199</v>
       </c>
@@ -11169,7 +11168,7 @@
         <v>68.961399999999998</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>219</v>
       </c>
@@ -11216,7 +11215,7 @@
         <v>25.2379</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>208</v>
       </c>
@@ -11263,7 +11262,7 @@
         <v>30.249600000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>210</v>
       </c>
@@ -11310,7 +11309,7 @@
         <v>30.067499999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>211</v>
       </c>
@@ -11357,7 +11356,7 @@
         <v>30.778300000000002</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>228</v>
       </c>
@@ -11404,7 +11403,7 @@
         <v>33.945799999999998</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>203</v>
       </c>
@@ -11451,7 +11450,7 @@
         <v>30.295500000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>217</v>
       </c>
@@ -11498,7 +11497,7 @@
         <v>32.689799999999998</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>230</v>
       </c>
@@ -11545,7 +11544,7 @@
         <v>34.530200000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>205</v>
       </c>
@@ -11592,7 +11591,7 @@
         <v>32.688600000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>231</v>
       </c>
@@ -11639,7 +11638,7 @@
         <v>35.018599999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>218</v>
       </c>
@@ -11686,7 +11685,7 @@
         <v>35.513300000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>220</v>
       </c>
@@ -11733,7 +11732,7 @@
         <v>37.090299999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>209</v>
       </c>
@@ -11780,7 +11779,7 @@
         <v>37.265300000000003</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>229</v>
       </c>
@@ -11827,7 +11826,7 @@
         <v>33.563099999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>202</v>
       </c>
@@ -11874,7 +11873,7 @@
         <v>37.161200000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>215</v>
       </c>
@@ -11921,7 +11920,7 @@
         <v>38.743499999999997</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>225</v>
       </c>
@@ -11968,7 +11967,7 @@
         <v>38.316699999999997</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>213</v>
       </c>
@@ -12015,7 +12014,7 @@
         <v>41.421999999999997</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>227</v>
       </c>
@@ -12062,7 +12061,7 @@
         <v>40.008899999999997</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>224</v>
       </c>
@@ -12109,7 +12108,7 @@
         <v>39.022599999999997</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>204</v>
       </c>
@@ -12156,7 +12155,7 @@
         <v>39.331600000000002</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>214</v>
       </c>
@@ -12203,7 +12202,7 @@
         <v>37.247500000000002</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>206</v>
       </c>
@@ -12250,7 +12249,7 @@
         <v>43.586100000000002</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>212</v>
       </c>
@@ -12297,7 +12296,7 @@
         <v>38.932499999999997</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>226</v>
       </c>
@@ -12344,7 +12343,7 @@
         <v>44.180500000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>216</v>
       </c>
@@ -12391,7 +12390,7 @@
         <v>39.707700000000003</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>222</v>
       </c>
@@ -12438,7 +12437,7 @@
         <v>43.681399999999996</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>207</v>
       </c>
@@ -12485,7 +12484,7 @@
         <v>47.150799999999997</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>221</v>
       </c>
@@ -12532,7 +12531,7 @@
         <v>42.607100000000003</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>223</v>
       </c>
@@ -12579,7 +12578,7 @@
         <v>45.128399999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>234</v>
       </c>
@@ -12632,7 +12631,7 @@
         <v>22.017099999999999</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>235</v>
       </c>
@@ -12685,7 +12684,7 @@
         <v>11.504300000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>236</v>
       </c>
@@ -12738,7 +12737,7 @@
         <v>17.213000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>237</v>
       </c>
@@ -12791,7 +12790,7 @@
         <v>19.907399999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>238</v>
       </c>
@@ -12844,7 +12843,7 @@
         <v>14.0428</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>239</v>
       </c>
@@ -12897,7 +12896,7 @@
         <v>15.4298</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>240</v>
       </c>
@@ -12950,7 +12949,7 @@
         <v>8.0465</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>241</v>
       </c>
@@ -13003,7 +13002,7 @@
         <v>13.3804</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>242</v>
       </c>
@@ -13056,7 +13055,7 @@
         <v>9.1295999999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>243</v>
       </c>
@@ -13109,7 +13108,7 @@
         <v>12.6868</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>244</v>
       </c>
@@ -13162,7 +13161,7 @@
         <v>5.1189</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>245</v>
       </c>
@@ -13215,7 +13214,7 @@
         <v>16.511099999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>246</v>
       </c>
@@ -13268,7 +13267,7 @@
         <v>5.6166999999999998</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>247</v>
       </c>
@@ -13321,7 +13320,7 @@
         <v>1.6275999999999999</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>248</v>
       </c>
@@ -13374,7 +13373,7 @@
         <v>12.8786</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>249</v>
       </c>
@@ -13427,7 +13426,7 @@
         <v>14.950100000000001</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>250</v>
       </c>
@@ -13480,7 +13479,7 @@
         <v>12.060499999999999</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>251</v>
       </c>
@@ -13533,7 +13532,7 @@
         <v>6.1791999999999998</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>252</v>
       </c>
@@ -13586,7 +13585,7 @@
         <v>12.1137</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>253</v>
       </c>
@@ -13639,7 +13638,7 @@
         <v>17.097100000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>254</v>
       </c>
@@ -13692,7 +13691,7 @@
         <v>12.9008</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>255</v>
       </c>
@@ -13745,7 +13744,7 @@
         <v>8.6393000000000004</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>256</v>
       </c>
@@ -13798,7 +13797,7 @@
         <v>12.701499999999999</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>257</v>
       </c>
@@ -13851,7 +13850,7 @@
         <v>14.011900000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>258</v>
       </c>
@@ -13904,7 +13903,7 @@
         <v>6.2793999999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>259</v>
       </c>
@@ -13957,7 +13956,7 @@
         <v>13.5649</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>260</v>
       </c>
@@ -14010,7 +14009,7 @@
         <v>18.9985</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>261</v>
       </c>
@@ -14063,7 +14062,7 @@
         <v>11.811500000000001</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>262</v>
       </c>
@@ -14116,7 +14115,7 @@
         <v>19.729500000000002</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>263</v>
       </c>
@@ -14169,7 +14168,7 @@
         <v>13.6798</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>264</v>
       </c>
@@ -14222,7 +14221,7 @@
         <v>15.2325</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>265</v>
       </c>
@@ -14275,7 +14274,7 @@
         <v>16.797799999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>266</v>
       </c>
@@ -14328,7 +14327,7 @@
         <v>16.459299999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>267</v>
       </c>
@@ -14381,7 +14380,7 @@
         <v>8.3870000000000005</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>268</v>
       </c>
@@ -14434,7 +14433,7 @@
         <v>14.7498</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>269</v>
       </c>
@@ -14487,7 +14486,7 @@
         <v>12.3972</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>270</v>
       </c>
@@ -14540,7 +14539,7 @@
         <v>17.488299999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>271</v>
       </c>
@@ -14593,7 +14592,7 @@
         <v>11.1645</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>272</v>
       </c>
@@ -14646,7 +14645,7 @@
         <v>16.989599999999999</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>273</v>
       </c>
@@ -14699,7 +14698,7 @@
         <v>18.1114</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>274</v>
       </c>
@@ -14752,7 +14751,7 @@
         <v>12.0069</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>275</v>
       </c>
@@ -14805,7 +14804,7 @@
         <v>19.442900000000002</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>276</v>
       </c>
@@ -14858,7 +14857,7 @@
         <v>21.177700000000002</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>277</v>
       </c>
@@ -14911,7 +14910,7 @@
         <v>13.924799999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>278</v>
       </c>
@@ -14964,7 +14963,7 @@
         <v>15.488899999999999</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>279</v>
       </c>
@@ -15017,7 +15016,7 @@
         <v>13.4657</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>280</v>
       </c>
@@ -15070,7 +15069,7 @@
         <v>10.2873</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>281</v>
       </c>
@@ -15123,7 +15122,7 @@
         <v>13.793100000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>282</v>
       </c>
@@ -15176,7 +15175,7 @@
         <v>16.369299999999999</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>283</v>
       </c>
@@ -15229,7 +15228,7 @@
         <v>10.519399999999999</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>304</v>
       </c>
@@ -15276,7 +15275,7 @@
         <v>13.151999999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>293</v>
       </c>
@@ -15323,7 +15322,7 @@
         <v>13.3073</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>294</v>
       </c>
@@ -15370,7 +15369,7 @@
         <v>13.7842</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>286</v>
       </c>
@@ -15417,7 +15416,7 @@
         <v>14.5532</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>289</v>
       </c>
@@ -15464,7 +15463,7 @@
         <v>15.027799999999999</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>287</v>
       </c>
@@ -15511,7 +15510,7 @@
         <v>14.990500000000001</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>311</v>
       </c>
@@ -15558,7 +15557,7 @@
         <v>15.134399999999999</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>302</v>
       </c>
@@ -15605,7 +15604,7 @@
         <v>15.419700000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>307</v>
       </c>
@@ -15652,7 +15651,7 @@
         <v>15.2715</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>303</v>
       </c>
@@ -15699,7 +15698,7 @@
         <v>15.4055</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>285</v>
       </c>
@@ -15746,7 +15745,7 @@
         <v>15.4316</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>296</v>
       </c>
@@ -15793,7 +15792,7 @@
         <v>16.034800000000001</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>310</v>
       </c>
@@ -15840,7 +15839,7 @@
         <v>15.6739</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>301</v>
       </c>
@@ -15887,7 +15886,7 @@
         <v>15.872</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>297</v>
       </c>
@@ -15934,7 +15933,7 @@
         <v>15.9275</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>295</v>
       </c>
@@ -15981,7 +15980,7 @@
         <v>15.628</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>313</v>
       </c>
@@ -16028,7 +16027,7 @@
         <v>16.742799999999999</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>309</v>
       </c>
@@ -16075,7 +16074,7 @@
         <v>16.784500000000001</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>308</v>
       </c>
@@ -16122,7 +16121,7 @@
         <v>16.444900000000001</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>312</v>
       </c>
@@ -16169,7 +16168,7 @@
         <v>16.8993</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>299</v>
       </c>
@@ -16216,7 +16215,7 @@
         <v>16.8691</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>306</v>
       </c>
@@ -16263,7 +16262,7 @@
         <v>17.0943</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>300</v>
       </c>
@@ -16310,7 +16309,7 @@
         <v>16.6995</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>284</v>
       </c>
@@ -16357,7 +16356,7 @@
         <v>16.985299999999999</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>305</v>
       </c>
@@ -16404,7 +16403,7 @@
         <v>16.625499999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>291</v>
       </c>
@@ -16451,7 +16450,7 @@
         <v>16.873799999999999</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>298</v>
       </c>
@@ -16498,7 +16497,7 @@
         <v>17.335599999999999</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>290</v>
       </c>
@@ -16545,7 +16544,7 @@
         <v>17.6004</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>288</v>
       </c>
@@ -16592,7 +16591,7 @@
         <v>17.0397</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>292</v>
       </c>
@@ -16647,18 +16646,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38820BB3-6AC0-4A3A-8B3E-82AD35119DC2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>